--- a/Fluence Temperature Profiles/temp_flux_profiles.xlsx
+++ b/Fluence Temperature Profiles/temp_flux_profiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
   <si>
     <t>W1A1L</t>
   </si>
@@ -50,13 +50,36 @@
   <si>
     <t>--</t>
   </si>
+  <si>
+    <t>Sample Key</t>
+  </si>
+  <si>
+    <t>High temperature low dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low temperature low dose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Temperature High Dose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High temperature High Dose </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,12 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,77 +394,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -594,7 +618,7 @@
       <c r="A5">
         <v>-14.4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4.3249368553072804E+22</v>
       </c>
       <c r="C5">
@@ -606,7 +630,7 @@
       <c r="E5">
         <v>-15.2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>4.3109744928315601E+22</v>
       </c>
       <c r="G5">
@@ -618,7 +642,7 @@
       <c r="I5">
         <v>-14.4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>5.3363623484329101E+22</v>
       </c>
       <c r="K5">
@@ -630,7 +654,7 @@
       <c r="M5">
         <v>-15.2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>6.8712315659954996E+22</v>
       </c>
       <c r="O5">
@@ -642,7 +666,7 @@
       <c r="Q5">
         <v>-15.2</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>2.94356498999078E+22</v>
       </c>
       <c r="S5">
@@ -654,7 +678,7 @@
       <c r="U5">
         <v>-14.4</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>3.1940699919964902E+22</v>
       </c>
       <c r="W5">
@@ -668,7 +692,7 @@
       <c r="A6">
         <v>-13.61</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5.87811652591334E+22</v>
       </c>
       <c r="C6">
@@ -680,7 +704,7 @@
       <c r="E6">
         <v>-14.41</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>6.6977643959900202E+22</v>
       </c>
       <c r="G6">
@@ -692,7 +716,7 @@
       <c r="I6">
         <v>-13.61</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>6.2536481137444002E+22</v>
       </c>
       <c r="K6">
@@ -704,7 +728,7 @@
       <c r="M6">
         <v>-14.41</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>9.3798021505377995E+22</v>
       </c>
       <c r="O6">
@@ -716,7 +740,7 @@
       <c r="Q6">
         <v>-14.41</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>4.0173277381474099E+22</v>
       </c>
       <c r="S6">
@@ -728,7 +752,7 @@
       <c r="U6">
         <v>-13.61</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>6.8382593120736303E+22</v>
       </c>
       <c r="W6">
@@ -742,7 +766,7 @@
       <c r="A7">
         <v>-12.81</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>7.8452090723715896E+22</v>
       </c>
       <c r="C7">
@@ -754,7 +778,7 @@
       <c r="E7">
         <v>-13.61</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1.13809739751374E+23</v>
       </c>
       <c r="G7">
@@ -766,7 +790,7 @@
       <c r="I7">
         <v>-12.81</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>7.3663258742895399E+22</v>
       </c>
       <c r="K7">
@@ -778,7 +802,7 @@
       <c r="M7">
         <v>-13.61</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>1.1504750385694001E+23</v>
       </c>
       <c r="O7">
@@ -790,7 +814,7 @@
       <c r="Q7">
         <v>-13.61</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>6.4456980779877402E+22</v>
       </c>
       <c r="S7">
@@ -802,7 +826,7 @@
       <c r="U7">
         <v>-12.81</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>9.0079437996140893E+22</v>
       </c>
       <c r="W7">
@@ -816,7 +840,7 @@
       <c r="A8">
         <v>-12.01</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>8.1336832587268494E+22</v>
       </c>
       <c r="C8">
@@ -828,7 +852,7 @@
       <c r="E8">
         <v>-12.81</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1.2395908345602399E+23</v>
       </c>
       <c r="G8">
@@ -840,7 +864,7 @@
       <c r="I8">
         <v>-12.01</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>7.6623740477677108E+22</v>
       </c>
       <c r="K8">
@@ -852,7 +876,7 @@
       <c r="M8">
         <v>-12.81</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>1.4643341377793101E+23</v>
       </c>
       <c r="O8">
@@ -864,7 +888,7 @@
       <c r="Q8">
         <v>-12.81</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>1.03809394657525E+23</v>
       </c>
       <c r="S8">
@@ -876,7 +900,7 @@
       <c r="U8">
         <v>-12.01</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>1.16134125328726E+23</v>
       </c>
       <c r="W8">
@@ -890,7 +914,7 @@
       <c r="A9">
         <v>-11.2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>9.2625600630795205E+22</v>
       </c>
       <c r="C9">
@@ -902,7 +926,7 @@
       <c r="E9">
         <v>-12</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1.6714581822737399E+23</v>
       </c>
       <c r="G9">
@@ -914,7 +938,7 @@
       <c r="I9">
         <v>-11.2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>7.5676733861235008E+22</v>
       </c>
       <c r="K9">
@@ -926,7 +950,7 @@
       <c r="M9">
         <v>-12</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>1.5035887735680899E+23</v>
       </c>
       <c r="O9">
@@ -938,7 +962,7 @@
       <c r="Q9">
         <v>-12</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>1.31358305254298E+23</v>
       </c>
       <c r="S9">
@@ -950,7 +974,7 @@
       <c r="U9">
         <v>-11.2</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="1">
         <v>1.99769562096231E+23</v>
       </c>
       <c r="W9">
@@ -964,7 +988,7 @@
       <c r="A10">
         <v>-10.4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1.17624624087037E+23</v>
       </c>
       <c r="C10">
@@ -976,7 +1000,7 @@
       <c r="E10">
         <v>-11.2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2.3536164554067999E+23</v>
       </c>
       <c r="G10">
@@ -988,7 +1012,7 @@
       <c r="I10">
         <v>-10.4</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>8.3356215620880495E+22</v>
       </c>
       <c r="K10">
@@ -1000,7 +1024,7 @@
       <c r="M10">
         <v>-11.2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>1.43988641019057E+23</v>
       </c>
       <c r="O10">
@@ -1012,7 +1036,7 @@
       <c r="Q10">
         <v>-11.2</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>1.75918949968683E+23</v>
       </c>
       <c r="S10">
@@ -1024,7 +1048,7 @@
       <c r="U10">
         <v>-10.4</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="1">
         <v>2.9496529039689101E+23</v>
       </c>
       <c r="W10">
@@ -1038,7 +1062,7 @@
       <c r="A11">
         <v>-9.61</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1.0353794548709499E+23</v>
       </c>
       <c r="C11">
@@ -1050,7 +1074,7 @@
       <c r="E11">
         <v>-10.41</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2.3997565939443999E+23</v>
       </c>
       <c r="G11">
@@ -1062,7 +1086,7 @@
       <c r="I11">
         <v>-9.61</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>1.0880762697818001E+23</v>
       </c>
       <c r="K11">
@@ -1074,7 +1098,7 @@
       <c r="M11">
         <v>-10.41</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>1.35185196014789E+23</v>
       </c>
       <c r="O11">
@@ -1086,7 +1110,7 @@
       <c r="Q11">
         <v>-10.41</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>2.31112041988503E+23</v>
       </c>
       <c r="S11">
@@ -1098,7 +1122,7 @@
       <c r="U11">
         <v>-9.61</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <v>3.3427366650659202E+23</v>
       </c>
       <c r="W11">
@@ -1112,7 +1136,7 @@
       <c r="A12">
         <v>-8.81</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1.42101001441856E+23</v>
       </c>
       <c r="C12">
@@ -1124,7 +1148,7 @@
       <c r="E12">
         <v>-9.61</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>2.8763348788570001E+23</v>
       </c>
       <c r="G12">
@@ -1136,7 +1160,7 @@
       <c r="I12">
         <v>-8.81</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>1.3749419584919101E+23</v>
       </c>
       <c r="K12">
@@ -1148,7 +1172,7 @@
       <c r="M12">
         <v>-9.61</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>1.7063042192477701E+23</v>
       </c>
       <c r="O12">
@@ -1160,7 +1184,7 @@
       <c r="Q12">
         <v>-9.61</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>2.73443310395409E+23</v>
       </c>
       <c r="S12">
@@ -1172,7 +1196,7 @@
       <c r="U12">
         <v>-8.81</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="1">
         <v>3.2552085754158798E+23</v>
       </c>
       <c r="W12">
@@ -1186,7 +1210,7 @@
       <c r="A13">
         <v>-8.01</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1.9340769362177899E+23</v>
       </c>
       <c r="C13">
@@ -1198,7 +1222,7 @@
       <c r="E13">
         <v>-8.81</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3.30496349350688E+23</v>
       </c>
       <c r="G13">
@@ -1210,7 +1234,7 @@
       <c r="I13">
         <v>-8.01</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>2.0932569883226699E+23</v>
       </c>
       <c r="K13">
@@ -1222,7 +1246,7 @@
       <c r="M13">
         <v>-8.81</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>2.0499710528115401E+23</v>
       </c>
       <c r="O13">
@@ -1234,7 +1258,7 @@
       <c r="Q13">
         <v>-8.81</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>3.4313877348423301E+23</v>
       </c>
       <c r="S13">
@@ -1246,7 +1270,7 @@
       <c r="U13">
         <v>-8.01</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="1">
         <v>2.7182029895163401E+23</v>
       </c>
       <c r="W13">
@@ -1260,7 +1284,7 @@
       <c r="A14">
         <v>-7.2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3.0591965012945701E+23</v>
       </c>
       <c r="C14">
@@ -1272,7 +1296,7 @@
       <c r="E14">
         <v>-8</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>3.4240527837444702E+23</v>
       </c>
       <c r="G14">
@@ -1284,7 +1308,7 @@
       <c r="I14">
         <v>-7.2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>2.8427484398404901E+23</v>
       </c>
       <c r="K14">
@@ -1296,7 +1320,7 @@
       <c r="M14">
         <v>-8</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>3.0370376773909499E+23</v>
       </c>
       <c r="O14">
@@ -1308,7 +1332,7 @@
       <c r="Q14">
         <v>-8</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>3.83161246399626E+23</v>
       </c>
       <c r="S14">
@@ -1320,7 +1344,7 @@
       <c r="U14">
         <v>-7.2</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <v>4.4948346285180002E+23</v>
       </c>
       <c r="W14">
@@ -1334,7 +1358,7 @@
       <c r="A15">
         <v>-6.41</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>3.0197761347807902E+23</v>
       </c>
       <c r="C15">
@@ -1346,7 +1370,7 @@
       <c r="E15">
         <v>-7.21</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>4.4094998518780502E+23</v>
       </c>
       <c r="G15">
@@ -1358,7 +1382,7 @@
       <c r="I15">
         <v>-6.41</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>3.5592896620257798E+23</v>
       </c>
       <c r="K15">
@@ -1370,7 +1394,7 @@
       <c r="M15">
         <v>-7.21</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>3.1677964891083497E+23</v>
       </c>
       <c r="O15">
@@ -1382,7 +1406,7 @@
       <c r="Q15">
         <v>-7.21</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>4.2902859765380502E+23</v>
       </c>
       <c r="S15">
@@ -1394,7 +1418,7 @@
       <c r="U15">
         <v>-6.41</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <v>4.1575303712689798E+23</v>
       </c>
       <c r="W15">
@@ -1408,7 +1432,7 @@
       <c r="A16">
         <v>-5.6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>3.9020807899142701E+23</v>
       </c>
       <c r="C16">
@@ -1420,7 +1444,7 @@
       <c r="E16">
         <v>-6.4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>4.9416556579668901E+23</v>
       </c>
       <c r="G16">
@@ -1432,7 +1456,7 @@
       <c r="I16">
         <v>-5.6</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>4.4849643997545703E+23</v>
       </c>
       <c r="K16">
@@ -1444,7 +1468,7 @@
       <c r="M16">
         <v>-6.4</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>3.0148132447299001E+23</v>
       </c>
       <c r="O16">
@@ -1456,7 +1480,7 @@
       <c r="Q16">
         <v>-6.4</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <v>4.7988517788331003E+23</v>
       </c>
       <c r="S16">
@@ -1468,7 +1492,7 @@
       <c r="U16">
         <v>-5.6</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="1">
         <v>5.8246557652133898E+23</v>
       </c>
       <c r="W16">
@@ -1482,7 +1506,7 @@
       <c r="A17">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>5.0285711316781902E+23</v>
       </c>
       <c r="C17">
@@ -1494,7 +1518,7 @@
       <c r="E17">
         <v>-5.61</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>5.8607937448574697E+23</v>
       </c>
       <c r="G17">
@@ -1506,7 +1530,7 @@
       <c r="I17">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>5.36714096105258E+23</v>
       </c>
       <c r="K17">
@@ -1518,7 +1542,7 @@
       <c r="M17">
         <v>-5.61</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>4.6262078561326798E+23</v>
       </c>
       <c r="O17">
@@ -1530,7 +1554,7 @@
       <c r="Q17">
         <v>-5.61</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <v>6.3564007052536001E+23</v>
       </c>
       <c r="S17">
@@ -1542,7 +1566,7 @@
       <c r="U17">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="1">
         <v>6.7008307923558598E+23</v>
       </c>
       <c r="W17">
@@ -1556,7 +1580,7 @@
       <c r="A18">
         <v>-4.01</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5.4555840425667503E+23</v>
       </c>
       <c r="C18">
@@ -1568,7 +1592,7 @@
       <c r="E18">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>7.4677516394496501E+23</v>
       </c>
       <c r="G18">
@@ -1580,7 +1604,7 @@
       <c r="I18">
         <v>-4.01</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>6.5723333991043097E+23</v>
       </c>
       <c r="K18">
@@ -1592,7 +1616,7 @@
       <c r="M18">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>4.7339933833174501E+23</v>
       </c>
       <c r="O18">
@@ -1604,7 +1628,7 @@
       <c r="Q18">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <v>7.7794550360987801E+23</v>
       </c>
       <c r="S18">
@@ -1616,7 +1640,7 @@
       <c r="U18">
         <v>-4.01</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="1">
         <v>8.0427581816726507E+23</v>
       </c>
       <c r="W18">
@@ -1630,7 +1654,7 @@
       <c r="A19">
         <v>-3.21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>6.5553190183495496E+23</v>
       </c>
       <c r="C19">
@@ -1642,7 +1666,7 @@
       <c r="E19">
         <v>-4.01</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>1.00202788396308E+24</v>
       </c>
       <c r="G19">
@@ -1654,7 +1678,7 @@
       <c r="I19">
         <v>-3.21</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>6.8770276269647105E+23</v>
       </c>
       <c r="K19">
@@ -1666,7 +1690,7 @@
       <c r="M19">
         <v>-4.01</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>5.7853229121290001E+23</v>
       </c>
       <c r="O19">
@@ -1678,7 +1702,7 @@
       <c r="Q19">
         <v>-4.01</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <v>1.03483703741796E+24</v>
       </c>
       <c r="S19">
@@ -1690,7 +1714,7 @@
       <c r="U19">
         <v>-3.21</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="1">
         <v>1.04972237383593E+24</v>
       </c>
       <c r="W19">
@@ -1704,7 +1728,7 @@
       <c r="A20">
         <v>-2.4</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>6.9886270507940103E+23</v>
       </c>
       <c r="C20">
@@ -1716,7 +1740,7 @@
       <c r="E20">
         <v>-3.2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1.3559767489572101E+24</v>
       </c>
       <c r="G20">
@@ -1728,7 +1752,7 @@
       <c r="I20">
         <v>-2.4</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>7.4985712164001694E+23</v>
       </c>
       <c r="K20">
@@ -1740,7 +1764,7 @@
       <c r="M20">
         <v>-3.2</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>6.9809080705750896E+23</v>
       </c>
       <c r="O20">
@@ -1752,7 +1776,7 @@
       <c r="Q20">
         <v>-3.2</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>1.07488690359542E+24</v>
       </c>
       <c r="S20">
@@ -1764,7 +1788,7 @@
       <c r="U20">
         <v>-2.4</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="1">
         <v>1.1784689392252E+24</v>
       </c>
       <c r="W20">
@@ -1778,7 +1802,7 @@
       <c r="A21">
         <v>-1.61</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>6.5623246472609005E+23</v>
       </c>
       <c r="C21">
@@ -1790,7 +1814,7 @@
       <c r="E21">
         <v>-2.41</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>1.2367270565517599E+24</v>
       </c>
       <c r="G21">
@@ -1802,7 +1826,7 @@
       <c r="I21">
         <v>-1.61</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>7.89501838719402E+23</v>
       </c>
       <c r="K21">
@@ -1814,7 +1838,7 @@
       <c r="M21">
         <v>-2.41</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>7.1745457381288602E+23</v>
       </c>
       <c r="O21">
@@ -1826,7 +1850,7 @@
       <c r="Q21">
         <v>-2.41</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="1">
         <v>1.14360493006626E+24</v>
       </c>
       <c r="S21">
@@ -1838,7 +1862,7 @@
       <c r="U21">
         <v>-1.61</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="1">
         <v>1.2939175798886499E+24</v>
       </c>
       <c r="W21">
@@ -1852,7 +1876,7 @@
       <c r="A22">
         <v>-0.8</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>6.6669222223273994E+23</v>
       </c>
       <c r="C22">
@@ -1864,7 +1888,7 @@
       <c r="E22">
         <v>-1.6</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1.3647997182802901E+24</v>
       </c>
       <c r="G22">
@@ -1876,7 +1900,7 @@
       <c r="I22">
         <v>-0.8</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>7.9533540008900104E+23</v>
       </c>
       <c r="K22">
@@ -1888,7 +1912,7 @@
       <c r="M22">
         <v>-1.6</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>7.7321276556865197E+23</v>
       </c>
       <c r="O22">
@@ -1900,7 +1924,7 @@
       <c r="Q22">
         <v>-1.6</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>1.3074534033075E+24</v>
       </c>
       <c r="S22">
@@ -1912,7 +1936,7 @@
       <c r="U22">
         <v>-0.8</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="1">
         <v>1.4870263835713E+24</v>
       </c>
       <c r="W22">
@@ -1926,7 +1950,7 @@
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>8.2518976043002495E+23</v>
       </c>
       <c r="C23">
@@ -1938,7 +1962,7 @@
       <c r="E23">
         <v>-0.8</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>1.5293428591517101E+24</v>
       </c>
       <c r="G23">
@@ -1950,7 +1974,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>8.3406056587331203E+23</v>
       </c>
       <c r="K23">
@@ -1962,7 +1986,7 @@
       <c r="M23">
         <v>-0.8</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>9.0697092229697004E+23</v>
       </c>
       <c r="O23">
@@ -1974,7 +1998,7 @@
       <c r="Q23">
         <v>-0.8</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <v>1.19845115841814E+24</v>
       </c>
       <c r="S23">
@@ -1983,10 +2007,10 @@
       <c r="T23">
         <v>392.64</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="1">
         <v>-4.4408920985006301E-16</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="1">
         <v>1.37690404503057E+24</v>
       </c>
       <c r="W23">
@@ -2000,7 +2024,7 @@
       <c r="A24">
         <v>0.8</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>7.5962034008960305E+23</v>
       </c>
       <c r="C24">
@@ -2012,7 +2036,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>1.4114862608862499E+24</v>
       </c>
       <c r="G24">
@@ -2024,7 +2048,7 @@
       <c r="I24">
         <v>0.8</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>8.2571073016896604E+23</v>
       </c>
       <c r="K24">
@@ -2036,7 +2060,7 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>7.9066726402147806E+23</v>
       </c>
       <c r="O24">
@@ -2045,10 +2069,10 @@
       <c r="P24">
         <v>211.88</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="1">
         <v>-2.2204460492503101E-16</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="1">
         <v>1.4044390577032501E+24</v>
       </c>
       <c r="S24">
@@ -2060,7 +2084,7 @@
       <c r="U24">
         <v>0.8</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="1">
         <v>1.4585658728891501E+24</v>
       </c>
       <c r="W24">
@@ -2074,7 +2098,7 @@
       <c r="A25">
         <v>1.59</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>7.4592556511666101E+23</v>
       </c>
       <c r="C25">
@@ -2086,7 +2110,7 @@
       <c r="E25">
         <v>0.79</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>1.5278843344628601E+24</v>
       </c>
       <c r="G25">
@@ -2098,7 +2122,7 @@
       <c r="I25">
         <v>1.59</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>8.4046011555832397E+23</v>
       </c>
       <c r="K25">
@@ -2110,7 +2134,7 @@
       <c r="M25">
         <v>0.79</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>8.0492344501531906E+23</v>
       </c>
       <c r="O25">
@@ -2122,7 +2146,7 @@
       <c r="Q25">
         <v>0.79</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="1">
         <v>1.26487876221944E+24</v>
       </c>
       <c r="S25">
@@ -2134,7 +2158,7 @@
       <c r="U25">
         <v>1.59</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="1">
         <v>1.5226833660657801E+24</v>
       </c>
       <c r="W25">
@@ -2148,7 +2172,7 @@
       <c r="A26">
         <v>2.4</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>7.6424530187442196E+23</v>
       </c>
       <c r="C26">
@@ -2160,7 +2184,7 @@
       <c r="E26">
         <v>1.6</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>1.4193308726930599E+24</v>
       </c>
       <c r="G26">
@@ -2172,7 +2196,7 @@
       <c r="I26">
         <v>2.4</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>8.5739479491498297E+23</v>
       </c>
       <c r="K26">
@@ -2184,7 +2208,7 @@
       <c r="M26">
         <v>1.6</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>7.8911536503184497E+23</v>
       </c>
       <c r="O26">
@@ -2196,7 +2220,7 @@
       <c r="Q26">
         <v>1.6</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <v>1.53287990600293E+24</v>
       </c>
       <c r="S26">
@@ -2208,7 +2232,7 @@
       <c r="U26">
         <v>2.4</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="1">
         <v>1.55498730831026E+24</v>
       </c>
       <c r="W26">
@@ -2222,7 +2246,7 @@
       <c r="A27">
         <v>3.2</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>6.8290596401600006E+23</v>
       </c>
       <c r="C27">
@@ -2234,7 +2258,7 @@
       <c r="E27">
         <v>2.4</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>1.2539341698810199E+24</v>
       </c>
       <c r="G27">
@@ -2246,7 +2270,7 @@
       <c r="I27">
         <v>3.2</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>7.2052391956039995E+23</v>
       </c>
       <c r="K27">
@@ -2258,7 +2282,7 @@
       <c r="M27">
         <v>2.4</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>6.8801498904435305E+23</v>
       </c>
       <c r="O27">
@@ -2270,7 +2294,7 @@
       <c r="Q27">
         <v>2.4</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>1.21889664892741E+24</v>
       </c>
       <c r="S27">
@@ -2282,7 +2306,7 @@
       <c r="U27">
         <v>3.2</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="1">
         <v>1.2672051871907399E+24</v>
       </c>
       <c r="W27">
@@ -2296,7 +2320,7 @@
       <c r="A28">
         <v>3.99</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>6.90118330910491E+23</v>
       </c>
       <c r="C28">
@@ -2308,7 +2332,7 @@
       <c r="E28">
         <v>3.19</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>1.19169224817956E+24</v>
       </c>
       <c r="G28">
@@ -2320,7 +2344,7 @@
       <c r="I28">
         <v>3.99</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>6.5726342589403506E+23</v>
       </c>
       <c r="K28">
@@ -2332,7 +2356,7 @@
       <c r="M28">
         <v>3.19</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>6.7278826194663505E+23</v>
       </c>
       <c r="O28">
@@ -2344,7 +2368,7 @@
       <c r="Q28">
         <v>3.19</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <v>9.7476707577962006E+23</v>
       </c>
       <c r="S28">
@@ -2356,7 +2380,7 @@
       <c r="U28">
         <v>3.99</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28" s="1">
         <v>1.0242316460481299E+24</v>
       </c>
       <c r="W28">
@@ -2370,7 +2394,7 @@
       <c r="A29">
         <v>4.79</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>5.6555664097921099E+23</v>
       </c>
       <c r="C29">
@@ -2382,7 +2406,7 @@
       <c r="E29">
         <v>3.99</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1.1649689713428499E+24</v>
       </c>
       <c r="G29">
@@ -2394,7 +2418,7 @@
       <c r="I29">
         <v>4.79</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>6.0473164585376695E+23</v>
       </c>
       <c r="K29">
@@ -2406,7 +2430,7 @@
       <c r="M29">
         <v>3.99</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>5.6885450941890901E+23</v>
       </c>
       <c r="O29">
@@ -2418,7 +2442,7 @@
       <c r="Q29">
         <v>3.99</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>8.7929466289271705E+23</v>
       </c>
       <c r="S29">
@@ -2430,7 +2454,7 @@
       <c r="U29">
         <v>4.79</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29" s="1">
         <v>9.9946012056449898E+23</v>
       </c>
       <c r="W29">
@@ -2444,7 +2468,7 @@
       <c r="A30">
         <v>5.59</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>5.0377284960585197E+23</v>
       </c>
       <c r="C30">
@@ -2456,7 +2480,7 @@
       <c r="E30">
         <v>4.79</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>9.9106740268796001E+23</v>
       </c>
       <c r="G30">
@@ -2468,7 +2492,7 @@
       <c r="I30">
         <v>5.59</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>5.0376469785247499E+23</v>
       </c>
       <c r="K30">
@@ -2492,7 +2516,7 @@
       <c r="Q30">
         <v>4.79</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>8.1176392618561705E+23</v>
       </c>
       <c r="S30">
@@ -2504,7 +2528,7 @@
       <c r="U30">
         <v>5.59</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="1">
         <v>9.9771927680354495E+23</v>
       </c>
       <c r="W30">
@@ -2518,7 +2542,7 @@
       <c r="A31">
         <v>6.4</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>5.2545501404442903E+23</v>
       </c>
       <c r="C31">
@@ -2566,7 +2590,7 @@
       <c r="Q31">
         <v>5.6</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>8.8461764181796005E+23</v>
       </c>
       <c r="S31">
@@ -2578,7 +2602,7 @@
       <c r="U31">
         <v>6.4</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="1">
         <v>9.9697275047897107E+23</v>
       </c>
       <c r="W31">
@@ -2980,6 +3004,43 @@
       </c>
       <c r="D42" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
